--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3516814.733965234</v>
+        <v>3592344.403630042</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -659,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>44.13811946581988</v>
+        <v>118.5741406233474</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -741,7 +743,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646389</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -753,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -868,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>40.98137063113193</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>55.90301252244944</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>327.8993212494768</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>355.546756558266</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1066,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>81.12990358774286</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>20.30061708736371</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1142,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1181,22 +1183,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>178.6409626351453</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>179.4476041204657</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1306,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>116.9994895969261</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -1345,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>152.6937519238258</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,7 +1426,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1578,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>67.55352797375818</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1588,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>195.9666327330102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.876045741713</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1670,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>67.74161902837896</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>139.153727875004</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1828,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>115.1404896157268</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2062,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>204.1291651532058</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2236,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>104.092084271809</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2293,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>206.8064269214875</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2333,7 +2335,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113187</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
         <v>81.77913505274074</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,13 +2478,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>32.28492340924048</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2533,16 +2535,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>101.524306269308</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274067</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,22 +2608,22 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>21.38391998621746</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2809,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274074</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2956,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>97.12576331611463</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>143.3158222056519</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3196,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3247,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>170.4824349897588</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>54.77951516590844</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3317,10 +3319,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249802</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3427,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>145.0392127537564</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>96.7597091746167</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3503,13 +3505,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3518,10 +3520,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051977</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3664,10 +3666,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>143.8350287637259</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>179.5232416718499</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3803,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784703</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3910,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>82.47437332366377</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3949,7 +3951,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3961,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>78.31227899301599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3986,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>411.9645167896915</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,19 +4030,19 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
-        <v>208.4827883385031</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>122.6519788371604</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>36.84806229728085</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4186,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.553390680693</v>
+        <v>1001.280783616703</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4346,34 +4348,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2476.387644276009</v>
+        <v>2346.171054647384</v>
       </c>
       <c r="U2" t="n">
-        <v>2476.387644276009</v>
+        <v>2092.409269285475</v>
       </c>
       <c r="V2" t="n">
-        <v>2476.387644276009</v>
+        <v>1761.346381941905</v>
       </c>
       <c r="W2" t="n">
-        <v>2123.618989005894</v>
+        <v>1761.346381941905</v>
       </c>
       <c r="X2" t="n">
-        <v>1750.153230744814</v>
+        <v>1387.880623680825</v>
       </c>
       <c r="Y2" t="n">
-        <v>1750.153230744814</v>
+        <v>1387.880623680825</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4495,43 +4497,43 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>686.7336603366044</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>686.7336603366044</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>432.0491721307175</v>
       </c>
       <c r="W4" t="n">
-        <v>671.6612947898188</v>
+        <v>432.0491721307175</v>
       </c>
       <c r="X4" t="n">
-        <v>443.6717438918015</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.8791647482714</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1937.083492693021</v>
+        <v>1648.990120852571</v>
       </c>
       <c r="C5" t="n">
-        <v>1568.120975752609</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D5" t="n">
-        <v>1209.855277145859</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>824.0670245476144</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>413.0811197580069</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,7 +4570,7 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.683332757143</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="Y5" t="n">
-        <v>2323.683332757143</v>
+        <v>2035.589960916693</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4659,34 +4661,34 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.5489038166068</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="C7" t="n">
-        <v>181.5489038166068</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="D7" t="n">
-        <v>181.5489038166068</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="E7" t="n">
-        <v>181.5489038166068</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="F7" t="n">
-        <v>181.5489038166068</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>463.9179680525992</v>
       </c>
       <c r="U7" t="n">
-        <v>409.5384547146241</v>
+        <v>463.9179680525992</v>
       </c>
       <c r="V7" t="n">
-        <v>409.5384547146241</v>
+        <v>463.9179680525992</v>
       </c>
       <c r="W7" t="n">
-        <v>409.5384547146241</v>
+        <v>463.9179680525992</v>
       </c>
       <c r="X7" t="n">
-        <v>181.5489038166068</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="Y7" t="n">
-        <v>181.5489038166068</v>
+        <v>235.9284171545818</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1345.301239238533</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C8" t="n">
-        <v>1345.301239238533</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D8" t="n">
-        <v>1345.301239238533</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2461.674984745539</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2461.674984745539</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2461.674984745539</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W8" t="n">
-        <v>2108.906329475425</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X8" t="n">
-        <v>1735.440571214345</v>
+        <v>1812.286255290752</v>
       </c>
       <c r="Y8" t="n">
-        <v>1345.301239238533</v>
+        <v>1422.14692331494</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>365.6939024587809</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="C10" t="n">
-        <v>365.6939024587809</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="D10" t="n">
-        <v>365.6939024587809</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="E10" t="n">
-        <v>217.7808088763878</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F10" t="n">
-        <v>217.7808088763878</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G10" t="n">
-        <v>217.7808088763878</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>217.7808088763878</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587809</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>365.6939024587809</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U10" t="n">
-        <v>365.6939024587809</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="V10" t="n">
-        <v>365.6939024587809</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="W10" t="n">
-        <v>365.6939024587809</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="X10" t="n">
-        <v>365.6939024587809</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="Y10" t="n">
-        <v>365.6939024587809</v>
+        <v>359.6044479702274</v>
       </c>
     </row>
     <row r="11">
@@ -5015,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5072,19 +5074,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5127,16 +5129,16 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>356.6647764207315</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C13" t="n">
-        <v>356.6647764207315</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D13" t="n">
-        <v>356.6647764207315</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028587</v>
@@ -5224,25 +5226,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1119.6852701931</v>
       </c>
       <c r="U13" t="n">
-        <v>1098.712528333286</v>
+        <v>830.5566314066585</v>
       </c>
       <c r="V13" t="n">
-        <v>844.0280401273993</v>
+        <v>575.8721432007717</v>
       </c>
       <c r="W13" t="n">
-        <v>554.6108700904388</v>
+        <v>575.8721432007717</v>
       </c>
       <c r="X13" t="n">
-        <v>554.6108700904388</v>
+        <v>575.8721432007717</v>
       </c>
       <c r="Y13" t="n">
-        <v>356.6647764207315</v>
+        <v>575.8721432007717</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
         <v>904.3190116155888</v>
@@ -5273,10 +5275,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514085</v>
@@ -5291,7 +5293,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
@@ -5300,28 +5302,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571611</v>
+        <v>485.5200852635876</v>
       </c>
       <c r="L15" t="n">
-        <v>1206.718781115523</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395484</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059517</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028589</v>
+        <v>333.8182909469086</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028589</v>
+        <v>333.8182909469086</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028589</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028589</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028589</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011507</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952638</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>554.6108700904388</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028589</v>
+        <v>554.6108700904388</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028589</v>
+        <v>333.8182909469086</v>
       </c>
     </row>
     <row r="17">
@@ -5489,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514085</v>
@@ -5528,7 +5530,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
         <v>4454.632848899128</v>
@@ -5540,7 +5542,7 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5558,7 +5560,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>2375.989236263799</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>2525.058920465859</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636251</v>
+        <v>2958.820886056259</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>3266.141019336221</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>4070.552597600372</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>4350.092662819069</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>4555.115143601279</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916993</v>
       </c>
       <c r="R18" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S18" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>644.1080300429516</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>475.1718471150447</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>325.0552077027089</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>325.0552077027089</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>325.0552077027089</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5680,7 +5682,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765191</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706323</v>
+        <v>644.1080300429516</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>644.1080300429516</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>644.1080300429516</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>644.1080300429516</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805475</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619128</v>
@@ -5774,28 +5776,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="21">
@@ -5817,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2432.614441745106</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3459.155393916675</v>
+        <v>668.5656656016679</v>
       </c>
       <c r="C22" t="n">
-        <v>3459.155393916675</v>
+        <v>668.5656656016679</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916675</v>
+        <v>518.4490261893321</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916675</v>
+        <v>370.535932606939</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916675</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>4452.03918220107</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V22" t="n">
-        <v>4197.354693995183</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W22" t="n">
-        <v>3907.937523958222</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="X22" t="n">
-        <v>3679.947973060205</v>
+        <v>1071.006709575438</v>
       </c>
       <c r="Y22" t="n">
-        <v>3459.155393916675</v>
+        <v>850.2141304319076</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080548</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -5999,40 +6001,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6063,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701562</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619851</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>879.2482765610114</v>
+        <v>3806.831696841474</v>
       </c>
       <c r="C25" t="n">
-        <v>710.3120936331045</v>
+        <v>3806.831696841474</v>
       </c>
       <c r="D25" t="n">
-        <v>560.1954542207687</v>
+        <v>3806.831696841474</v>
       </c>
       <c r="E25" t="n">
-        <v>412.2823606383756</v>
+        <v>3774.220663094766</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404653</v>
+        <v>3627.330715596856</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>4571.725934227851</v>
       </c>
       <c r="V25" t="n">
-        <v>1209.787631771461</v>
+        <v>4317.041446021964</v>
       </c>
       <c r="W25" t="n">
-        <v>1209.787631771461</v>
+        <v>4027.624275985004</v>
       </c>
       <c r="X25" t="n">
-        <v>981.7980808734437</v>
+        <v>4027.624275985004</v>
       </c>
       <c r="Y25" t="n">
-        <v>879.2482765610114</v>
+        <v>3806.831696841474</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6224,28 +6226,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014293</v>
@@ -6257,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6306,22 +6308,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701562</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>796.3635653766204</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M27" t="n">
-        <v>1564.731711769082</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N27" t="n">
-        <v>1894.594339433115</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O27" t="n">
-        <v>2174.134404651812</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P27" t="n">
-        <v>2379.156885434021</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>4205.831222897545</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>4036.895039969637</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>3886.778400557302</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>3738.865306974908</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>3738.865306974908</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598087</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>4409.079606905781</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>4387.479687727784</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6476,37 +6478,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690735</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409608</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748357</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742901</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769786</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373971</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805659</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098443</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J30" t="n">
-        <v>2500.819361250805</v>
+        <v>2500.819361250804</v>
       </c>
       <c r="K30" t="n">
-        <v>2911.709630095318</v>
+        <v>2649.889045452864</v>
       </c>
       <c r="L30" t="n">
-        <v>3158.474758001782</v>
+        <v>3263.786115209752</v>
       </c>
       <c r="M30" t="n">
-        <v>3465.794891281743</v>
+        <v>3571.106248489714</v>
       </c>
       <c r="N30" t="n">
-        <v>3795.657518945776</v>
+        <v>4081.182609697672</v>
       </c>
       <c r="O30" t="n">
-        <v>4075.197584164473</v>
+        <v>4360.722674916369</v>
       </c>
       <c r="P30" t="n">
-        <v>4565.74515569858</v>
+        <v>4565.745155698579</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098069</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021847</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641234</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409491</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W30" t="n">
         <v>3808.539462681289</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475757</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710803</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028589</v>
+        <v>3886.778400557302</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028589</v>
+        <v>3886.778400557302</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028589</v>
+        <v>3886.778400557302</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028589</v>
+        <v>3738.865306974908</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028589</v>
+        <v>3738.865306974908</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028589</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028589</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.210845262961</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765191</v>
+        <v>4651.67263794368</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706323</v>
+        <v>4396.988149737793</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336716</v>
+        <v>4107.570979700832</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028589</v>
+        <v>4107.570979700832</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028589</v>
+        <v>3886.778400557302</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6765,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>233.7852434110083</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>644.675512255521</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619851</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4058.21949835487</v>
+        <v>843.1711433963918</v>
       </c>
       <c r="C34" t="n">
-        <v>3889.283315426963</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="D34" t="n">
-        <v>3889.283315426963</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="E34" t="n">
-        <v>3889.283315426963</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F34" t="n">
-        <v>3889.283315426963</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G34" t="n">
-        <v>3721.107993746784</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294727</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U34" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V34" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W34" t="n">
-        <v>4688.650093226657</v>
+        <v>898.5039869983195</v>
       </c>
       <c r="X34" t="n">
-        <v>4460.66054232864</v>
+        <v>898.5039869983195</v>
       </c>
       <c r="Y34" t="n">
-        <v>4239.86796318511</v>
+        <v>843.1711433963918</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6926,19 +6928,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6947,37 +6949,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>675.7175987609741</v>
+        <v>727.7227988731072</v>
       </c>
       <c r="C37" t="n">
-        <v>506.7814158330672</v>
+        <v>558.7866159452003</v>
       </c>
       <c r="D37" t="n">
-        <v>356.6647764207315</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E37" t="n">
-        <v>208.7516828383384</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F37" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7111,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1401.179190583543</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T37" t="n">
-        <v>1401.179190583543</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U37" t="n">
-        <v>1112.050551797101</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V37" t="n">
-        <v>857.3660635912138</v>
+        <v>909.3712637033469</v>
       </c>
       <c r="W37" t="n">
-        <v>857.3660635912138</v>
+        <v>909.3712637033469</v>
       </c>
       <c r="X37" t="n">
-        <v>857.3660635912138</v>
+        <v>909.3712637033469</v>
       </c>
       <c r="Y37" t="n">
-        <v>857.3660635912138</v>
+        <v>909.3712637033469</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7187,37 +7189,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690731</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409604</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748353</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742897</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769782</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373968</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805655</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098439</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>2500.819361250801</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>2649.889045452861</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>3263.786115209749</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>3571.106248489711</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>3900.968876153744</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>4568.699189774858</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>4773.721670557067</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R39" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S39" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098065</v>
       </c>
       <c r="T39" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021843</v>
       </c>
       <c r="U39" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.92892764123</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409487</v>
       </c>
       <c r="W39" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681286</v>
       </c>
       <c r="X39" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475753</v>
       </c>
       <c r="Y39" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710799</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>265.3924131404652</v>
+        <v>3922.735262851335</v>
       </c>
       <c r="C40" t="n">
-        <v>265.3924131404652</v>
+        <v>3922.735262851335</v>
       </c>
       <c r="D40" t="n">
-        <v>265.3924131404652</v>
+        <v>3772.618623439</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404652</v>
+        <v>3627.330715596852</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>3627.330715596852</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916673</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916673</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916673</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380583</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625194</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636323</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.002278403506</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431054</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436451</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042134</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.921157035281</v>
+        <v>4660.934562929843</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247865</v>
+        <v>4660.934562929843</v>
       </c>
       <c r="U40" t="n">
-        <v>782.7991340754431</v>
+        <v>4660.934562929843</v>
       </c>
       <c r="V40" t="n">
-        <v>782.7991340754431</v>
+        <v>4660.934562929843</v>
       </c>
       <c r="W40" t="n">
-        <v>493.3819640384826</v>
+        <v>4371.517392892883</v>
       </c>
       <c r="X40" t="n">
-        <v>265.3924131404652</v>
+        <v>4143.527841994865</v>
       </c>
       <c r="Y40" t="n">
-        <v>265.3924131404652</v>
+        <v>3922.735262851335</v>
       </c>
     </row>
     <row r="41">
@@ -7400,22 +7402,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7424,31 +7426,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7476,37 +7478,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>266.1532743881928</v>
+        <v>349.4607221898733</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028589</v>
+        <v>180.5245392619664</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028589</v>
+        <v>180.5245392619664</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028589</v>
+        <v>180.5245392619664</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028589</v>
+        <v>180.5245392619664</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7585,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V43" t="n">
-        <v>1044.311772267568</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W43" t="n">
-        <v>754.8946022306075</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X43" t="n">
-        <v>526.9050513325901</v>
+        <v>531.109187020113</v>
       </c>
       <c r="Y43" t="n">
-        <v>447.8017392184325</v>
+        <v>531.109187020113</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,67 +7633,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7724,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341676</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>221.1079791745893</v>
+        <v>579.3570368996734</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028589</v>
+        <v>579.3570368996734</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028589</v>
+        <v>429.2403974873376</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028589</v>
+        <v>281.3273039049445</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028589</v>
+        <v>134.4373564070342</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347409</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609669</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>731.31772835508</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W46" t="n">
-        <v>441.9005583181194</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="X46" t="n">
-        <v>441.9005583181194</v>
+        <v>981.7980808734433</v>
       </c>
       <c r="Y46" t="n">
-        <v>221.1079791745893</v>
+        <v>761.0055017299131</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451757</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360584</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627889</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8775,19 +8777,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>285.1031356539331</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -8930,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504511</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9003,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="L15" t="n">
-        <v>288.4091825776742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9179,7 +9181,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714835</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9240,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>188.8856946302387</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,16 +9479,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>104.8749102765741</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445216</v>
@@ -9717,28 +9719,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>96.03744927814625</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>285.1031356539329</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9960,22 +9962,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>145.2351313103796</v>
       </c>
       <c r="Q27" t="n">
-        <v>158.8724419039329</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,28 +10193,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>182.0340742867933</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776735</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10425,16 +10427,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>96.03744927814623</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10446,10 +10448,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>38.86002301949878</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298017</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,10 +10904,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>392.1113620226429</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.7164198729829</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>306.114737013996</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11382,22 +11384,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.7003683229574</v>
+        <v>349.765300333857</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23434,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>153.9940330846311</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.61802061908463</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>80.87385398983339</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>82.39383318338525</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,10 +23892,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>51.35307884765076</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>82.3938331833852</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>41.32896375112222</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24181,13 +24183,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>79.4309254770898</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,13 +24366,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>114.1490392373287</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24421,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>117.0603470827868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338523</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>197.2007333658773</v>
       </c>
     </row>
     <row r="29">
@@ -24844,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>189.1115890824627</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>82.39383318338525</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25084,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -25135,13 +25137,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>116.0405633468322</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>163.8051381861864</v>
       </c>
     </row>
     <row r="35">
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>3.576260264455925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>101.1611008089865</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,10 +25554,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>2.598933882843227</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>106.7141107267275</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25798,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>84.01919513971382</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25837,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -25849,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>140.2723743590788</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>44.59484226146746</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>129.6455061660967</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26074,19 +26076,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312475</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
         <v>718411.5486312478</v>
       </c>
       <c r="E2" t="n">
-        <v>684300.8545409903</v>
+        <v>684300.8545409904</v>
       </c>
       <c r="F2" t="n">
+        <v>684300.8545409909</v>
+      </c>
+      <c r="G2" t="n">
         <v>684300.8545409905</v>
       </c>
-      <c r="G2" t="n">
-        <v>684300.8545409903</v>
-      </c>
       <c r="H2" t="n">
-        <v>684300.85454099</v>
+        <v>684300.8545409901</v>
       </c>
       <c r="I2" t="n">
         <v>684300.85454099</v>
       </c>
       <c r="J2" t="n">
-        <v>684300.8545409901</v>
+        <v>684300.85454099</v>
       </c>
       <c r="K2" t="n">
-        <v>684300.8545409899</v>
+        <v>684300.8545409904</v>
       </c>
       <c r="L2" t="n">
+        <v>684300.8545409905</v>
+      </c>
+      <c r="M2" t="n">
         <v>684300.8545409904</v>
       </c>
-      <c r="M2" t="n">
-        <v>684300.8545409901</v>
-      </c>
       <c r="N2" t="n">
-        <v>684300.85454099</v>
+        <v>684300.8545409903</v>
       </c>
       <c r="O2" t="n">
-        <v>684300.85454099</v>
+        <v>684300.8545409904</v>
       </c>
       <c r="P2" t="n">
-        <v>684300.8545409901</v>
+        <v>684300.8545409903</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.074904503184371e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26426,40 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7916.731656007486</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="H4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="F4" t="n">
-        <v>7916.731656007413</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
+        <v>7916.731656007528</v>
+      </c>
+      <c r="K4" t="n">
         <v>7916.731656007481</v>
       </c>
-      <c r="I4" t="n">
-        <v>7916.731656007437</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="K4" t="n">
-        <v>7916.731656007411</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7916.73165600748</v>
-      </c>
       <c r="M4" t="n">
-        <v>7916.731656007436</v>
+        <v>7916.731656007505</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007561</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007426</v>
+        <v>7916.731656007482</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007402</v>
+        <v>7916.731656007484</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871667</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="L5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="M5" t="n">
-        <v>91987.32594871665</v>
-      </c>
       <c r="N5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-102332.4573626273</v>
+        <v>-102332.4573626271</v>
       </c>
       <c r="C6" t="n">
-        <v>487635.4218519175</v>
+        <v>487635.4218519178</v>
       </c>
       <c r="D6" t="n">
         <v>487635.4218519175</v>
       </c>
       <c r="E6" t="n">
-        <v>59236.7604593701</v>
+        <v>59236.76045937004</v>
       </c>
       <c r="F6" t="n">
-        <v>584396.7969362664</v>
+        <v>584396.7969362668</v>
       </c>
       <c r="G6" t="n">
-        <v>584396.7969362664</v>
+        <v>584396.7969362665</v>
       </c>
       <c r="H6" t="n">
-        <v>584396.7969362659</v>
+        <v>584396.796936266</v>
       </c>
       <c r="I6" t="n">
         <v>584396.7969362659</v>
       </c>
       <c r="J6" t="n">
-        <v>407973.5777436731</v>
+        <v>407973.5777436728</v>
       </c>
       <c r="K6" t="n">
-        <v>584396.7969362657</v>
+        <v>584396.7969362664</v>
       </c>
       <c r="L6" t="n">
         <v>584396.7969362665</v>
       </c>
       <c r="M6" t="n">
-        <v>449595.7817024288</v>
+        <v>449595.7817024292</v>
       </c>
       <c r="N6" t="n">
-        <v>584396.7969362659</v>
+        <v>584396.7969362662</v>
       </c>
       <c r="O6" t="n">
-        <v>584396.7969362659</v>
+        <v>584396.7969362664</v>
       </c>
       <c r="P6" t="n">
         <v>584396.7969362661</v>
@@ -26707,19 +26709,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.442254137558242e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.442254137558242e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.442254137558242e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.442254137558242e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.442254137558242e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170869</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26747,37 +26749,37 @@
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26808,13 +26810,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26826,10 +26828,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
     </row>
   </sheetData>
@@ -26929,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.442254137558242e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27166,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.442254137558242e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,22 +27426,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>172.3102008918379</v>
+        <v>97.87417973431037</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27537,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -27588,22 +27590,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>184.0537348269523</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>230.6199858141416</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>37.37357052153072</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>58.23741346252899</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27670,16 +27672,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27786,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>86.17989867130805</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>204.7344883707206</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27862,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>37.80735772251251</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>190.2834965580033</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28026,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.9661321954121</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,7 +28067,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>133.5881223181519</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -29272,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>6.442254137558242e-14</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>6.442254137558242e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>6.442254137558242e-14</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>6.442254137558242e-14</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>6.442254137558242e-14</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>6.442254137558242e-14</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>6.442254137558242e-14</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>6.442254137558242e-14</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>6.442254137558242e-14</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>6.442254137558242e-14</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>6.442254137558242e-14</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>6.442254137558242e-14</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>6.442254137558242e-14</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>6.442254137558242e-14</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>6.442254137558242e-14</v>
       </c>
     </row>
     <row r="27">
@@ -29983,16 +29985,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>6.442254137558242e-14</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>6.442254137558242e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>6.442254137558242e-14</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30037,19 +30039,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>6.442254137558242e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>6.442254137558242e-14</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>6.442254137558242e-14</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>6.442254137558242e-14</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30223,16 +30225,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>6.442254137558242e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>6.442254137558242e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>6.442254137558242e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>6.442254137558242e-14</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30241,7 +30243,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>6.442254137558242e-14</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1.158310819305697e-12</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>6.442254137558242e-14</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>6.442254137558242e-14</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>6.442254137558242e-14</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>6.442254137558242e-14</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>6.442254137558242e-14</v>
       </c>
     </row>
     <row r="39">
@@ -31042,10 +31044,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31054,34 +31056,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31218,28 +31220,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31987,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,37 +32001,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32105,7 +32107,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32388,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32701,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34702,22 +34704,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355125</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,10 +34859,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L4" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M4" t="n">
         <v>146.3614835535656</v>
@@ -34869,10 +34871,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35024,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839187</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35255,7 +35257,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35270,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35495,19 +35497,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>492.1965505854578</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109079</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>350.3150673110547</v>
       </c>
       <c r="L15" t="n">
-        <v>537.6668875336986</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109132</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>438.1433995862631</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36215,10 +36217,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>192.8879430616483</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36361,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>345.2951542341706</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>595.5275127043992</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>352.3285462419043</v>
       </c>
       <c r="Q27" t="n">
-        <v>246.8854746890071</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36913,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>515.2286476848062</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091983</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37008,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>137.9476282330529</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>510.1640057735818</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37163,10 +37165,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37245,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>349.2844000699651</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37482,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,25 +37624,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>674.4750642637511</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37719,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>555.3724419700203</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37874,10 +37876,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37956,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734238</v>
+        <v>660.1896773843232</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3585327.38873833</v>
+        <v>3590266.651587361</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -667,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>137.5356537670559</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>227.3519035934823</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229335</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325212</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.3768222575565</v>
+        <v>18.37682225755616</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -837,10 +837,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853703</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>230.0681405859388</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>113.7498308875051</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>94.48371085033163</v>
+        <v>46.08932666651348</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>110.1458031968981</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>34.50046002839137</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>41.03250833502977</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>28.51033041214364</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896909</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505273999</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -1584,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>137.6773810022423</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>40.71096332175367</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1663,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206827</v>
+        <v>354.6830416206818</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>242.1333799018694</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>33.35146980185857</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2092,16 +2092,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>101.4950386131013</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498027</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>157.2425576766694</v>
       </c>
       <c r="U31" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5.562624396424693</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3520,10 +3520,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4194,13 +4194,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>146.1854691670918</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1376.372217881286</v>
+        <v>962.1194880117284</v>
       </c>
       <c r="C2" t="n">
-        <v>1376.372217881286</v>
+        <v>962.1194880117284</v>
       </c>
       <c r="D2" t="n">
-        <v>1018.106519274536</v>
+        <v>603.853789404978</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762915</v>
+        <v>603.853789404978</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>192.8678846153704</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="U2" t="n">
-        <v>2467.500703550058</v>
+        <v>2443.387305656312</v>
       </c>
       <c r="V2" t="n">
-        <v>2136.437816206488</v>
+        <v>2112.324418312742</v>
       </c>
       <c r="W2" t="n">
-        <v>2136.437816206488</v>
+        <v>2112.324418312742</v>
       </c>
       <c r="X2" t="n">
-        <v>1762.972057945408</v>
+        <v>1738.858660051662</v>
       </c>
       <c r="Y2" t="n">
-        <v>1762.972057945408</v>
+        <v>1348.71932807585</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4406,46 +4406,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2643.317569050019</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430046</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816297</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H4" t="n">
         <v>235.9284171545819</v>
@@ -4488,52 +4488,52 @@
         <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594899</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1546.944160717209</v>
+        <v>829.562656169633</v>
       </c>
       <c r="C5" t="n">
-        <v>1177.981643776797</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="D5" t="n">
-        <v>1177.981643776797</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>1177.981643776797</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>766.99573898719</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4579,40 +4579,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2527.221582470428</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2273.45979710852</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>1942.396909764949</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>1589.628254494835</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.683332757143</v>
+        <v>1216.162496233755</v>
       </c>
       <c r="Y5" t="n">
-        <v>1933.544000781331</v>
+        <v>1216.162496233755</v>
       </c>
     </row>
     <row r="6">
@@ -4622,73 +4622,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.8329293182748</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4767,10 +4767,10 @@
         <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>603.2739732920446</v>
+        <v>652.1571896393357</v>
       </c>
       <c r="Y7" t="n">
-        <v>382.4813941485145</v>
+        <v>431.3646104958056</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1689.203741822952</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1320.241224882541</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>961.9755262757901</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>576.1872736775458</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>165.2013688879383</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2662.300141494594</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2662.300141494594</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2662.300141494594</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2331.237254151024</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>1978.468598880909</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>1978.468598880909</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="9">
@@ -4859,73 +4859,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615927</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414846</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.07275543519</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.317569050019</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064341</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785272</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D10" t="n">
-        <v>559.1928012785272</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>411.2797076961341</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>264.3897601982237</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>95.38995993655612</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>95.38995993655612</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>95.38995993655612</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064341</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064341</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064341</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064341</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064341</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064341</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064341</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064341</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064341</v>
+        <v>699.3306706588146</v>
       </c>
     </row>
     <row r="11">
@@ -5032,34 +5032,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822454</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>413.3055067228584</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C13" t="n">
-        <v>413.3055067228584</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D13" t="n">
-        <v>413.3055067228584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
         <v>265.3924131404652</v>
@@ -5232,19 +5232,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1359.848208939476</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>1105.163720733589</v>
+        <v>1168.665446597972</v>
       </c>
       <c r="W13" t="n">
-        <v>815.7465506966282</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="X13" t="n">
-        <v>815.7465506966282</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="Y13" t="n">
-        <v>594.9539715530981</v>
+        <v>879.2482765610114</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5290,13 +5290,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5466,7 +5466,7 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1379.229518531123</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
         <v>1090.100879744681</v>
@@ -5494,7 +5494,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5509,13 +5509,13 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514082</v>
@@ -5533,31 +5533,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126628</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C19" t="n">
         <v>97.21709146028584</v>
@@ -5676,19 +5676,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>675.007103038344</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V19" t="n">
-        <v>420.3226148324571</v>
+        <v>965.2084601534104</v>
       </c>
       <c r="W19" t="n">
-        <v>130.9054447954965</v>
+        <v>675.7912901164498</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="20">
@@ -5740,7 +5740,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5752,19 +5752,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5840,13 +5840,13 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5983,7 +5983,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -6007,10 +6007,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6022,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6074,16 +6074,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1187.92115703528</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U25" t="n">
-        <v>898.7925182488382</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>796.2722772255036</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>506.8551071885429</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>278.8655562905255</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
@@ -6214,64 +6214,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,19 +6302,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.193690363625</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6411,10 +6411,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
         <v>869.3083006011507</v>
@@ -6426,10 +6426,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6454,40 +6454,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1340.085404217832</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011507</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952638</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6688,22 +6688,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6712,7 +6712,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6885,19 +6885,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
         <v>97.21709146028584</v>
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6922,40 +6922,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>874.9271131227918</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>620.2426249169049</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>330.8254548799443</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
-        <v>102.8359039819269</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>102.8359039819269</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7192,10 +7192,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>731.3177283550796</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>441.900558318119</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7399,25 +7399,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7438,10 +7438,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7496,16 +7496,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7627,40 +7627,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7669,7 +7669,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>675.007103038344</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>527.3450129705744</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747036</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747218</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -8938,7 +8938,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119847</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -8947,7 +8947,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599059</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>423.3376789165131</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>288.4091825776756</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23472,10 +23472,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>148.5599713963351</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>211.4266800020743</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23706,10 +23706,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>10.00426342195857</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>150.6426047107267</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>64.30500338171987</v>
       </c>
       <c r="U31" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>174.2693557855126</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>29.89407122271365</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>140.3375291694992</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>691429.7925064224</v>
+        <v>691429.7925064223</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>691429.7925064223</v>
+        <v>691429.7925064224</v>
       </c>
     </row>
     <row r="10">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312484</v>
+      </c>
+      <c r="C2" t="n">
+        <v>718411.5486312477</v>
+      </c>
+      <c r="D2" t="n">
         <v>718411.5486312479</v>
-      </c>
-      <c r="C2" t="n">
-        <v>718411.5486312479</v>
-      </c>
-      <c r="D2" t="n">
-        <v>718411.5486312481</v>
       </c>
       <c r="E2" t="n">
         <v>684300.8545409901</v>
@@ -26328,34 +26328,34 @@
         <v>684300.8545409902</v>
       </c>
       <c r="G2" t="n">
-        <v>684300.8545409904</v>
+        <v>684300.8545409903</v>
       </c>
       <c r="H2" t="n">
         <v>684300.8545409902</v>
       </c>
       <c r="I2" t="n">
-        <v>684300.8545409903</v>
+        <v>684300.85454099</v>
       </c>
       <c r="J2" t="n">
-        <v>684300.8545409904</v>
+        <v>684300.8545409899</v>
       </c>
       <c r="K2" t="n">
         <v>684300.8545409902</v>
       </c>
       <c r="L2" t="n">
-        <v>684300.8545409902</v>
+        <v>684300.8545409903</v>
       </c>
       <c r="M2" t="n">
-        <v>684300.8545409901</v>
+        <v>684300.8545409905</v>
       </c>
       <c r="N2" t="n">
-        <v>684300.8545409903</v>
+        <v>684300.8545409899</v>
       </c>
       <c r="O2" t="n">
         <v>684300.8545409904</v>
       </c>
       <c r="P2" t="n">
-        <v>684300.8545409901</v>
+        <v>684300.8545409904</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145441</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.057241931150202e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7916.731656007486</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7916.731656007537</v>
+      </c>
+      <c r="H4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="F4" t="n">
-        <v>7916.731656007485</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7916.731656007485</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7916.731656007485</v>
-      </c>
       <c r="I4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.731656007408</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="L4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="N4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="M4" t="n">
-        <v>7916.731656007484</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7916.731656007485</v>
-      </c>
       <c r="O4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340943</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26487,31 +26487,31 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-102332.4573626268</v>
+        <v>-102332.457362626</v>
       </c>
       <c r="C6" t="n">
-        <v>487635.4218519178</v>
+        <v>487635.421851917</v>
       </c>
       <c r="D6" t="n">
         <v>487635.4218519178</v>
       </c>
       <c r="E6" t="n">
-        <v>58262.16919964817</v>
+        <v>59139.3013333978</v>
       </c>
       <c r="F6" t="n">
-        <v>583422.2056765445</v>
+        <v>584299.337810294</v>
       </c>
       <c r="G6" t="n">
-        <v>583422.2056765447</v>
+        <v>584299.337810294</v>
       </c>
       <c r="H6" t="n">
-        <v>583422.2056765445</v>
+        <v>584299.3378102939</v>
       </c>
       <c r="I6" t="n">
-        <v>583422.2056765446</v>
+        <v>584299.3378102938</v>
       </c>
       <c r="J6" t="n">
-        <v>406998.9864839517</v>
+        <v>407876.1186177006</v>
       </c>
       <c r="K6" t="n">
-        <v>583422.2056765445</v>
+        <v>584299.337810294</v>
       </c>
       <c r="L6" t="n">
-        <v>583422.2056765445</v>
+        <v>584299.3378102941</v>
       </c>
       <c r="M6" t="n">
-        <v>448621.1904427072</v>
+        <v>449498.3225764571</v>
       </c>
       <c r="N6" t="n">
-        <v>583422.2056765446</v>
+        <v>584299.3378102937</v>
       </c>
       <c r="O6" t="n">
-        <v>583422.2056765447</v>
+        <v>584299.3378102942</v>
       </c>
       <c r="P6" t="n">
-        <v>583422.2056765443</v>
+        <v>584299.3378102942</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170864</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26752,34 +26752,34 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>674.2872727545553</v>
+      </c>
+      <c r="C4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="C4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26813,7 +26813,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170864</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>276.248516253739</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481177</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27435,7 +27435,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>23.87226391480701</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1.932676241267473e-12</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890127</v>
+        <v>128.057140389013</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491434</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>183.7160294348562</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>102.6984894701527</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27779,13 +27779,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>131.2259445387055</v>
+        <v>179.6203287225237</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>303.6383668238969</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>139.9152527805801</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,16 +27912,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>4.167450853507248</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>0.612419542770656</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28569,7 +28569,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>-1.676880856393836e-12</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554463</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119864</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633791</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.6043567772738</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473549</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141104</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188909</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396472</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034978</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619149</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078606</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644438</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302234</v>
       </c>
       <c r="L4" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M4" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175838</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383795</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678004</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32235,40 +32235,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,10 +32308,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
@@ -32320,7 +32320,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
@@ -32329,10 +32329,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32408,7 +32408,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32420,10 +32420,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,25 +34701,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770686</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>54.3752747153553</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713948</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N4" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O4" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873144</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770687</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535713</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,13 +35333,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35658,7 +35658,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081124</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
         <v>713.1546070951472</v>
@@ -35667,7 +35667,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R14" t="n">
         <v>59.82538970349808</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145259</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>570.7728848187837</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,19 +36442,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
